--- a/pred_ohlcv/54/2019-10-17 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-17 BTG ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10140</v>
+        <v>10090</v>
       </c>
       <c r="C2" t="n">
-        <v>10020</v>
+        <v>10090</v>
       </c>
       <c r="D2" t="n">
-        <v>10160</v>
+        <v>10090</v>
       </c>
       <c r="E2" t="n">
-        <v>10020</v>
+        <v>10090</v>
       </c>
       <c r="F2" t="n">
-        <v>1604.25639921</v>
+        <v>3.9785</v>
       </c>
       <c r="G2" t="n">
-        <v>9890.416666666666</v>
+        <v>9884.916666666666</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10130</v>
+        <v>10140</v>
       </c>
       <c r="C3" t="n">
         <v>10020</v>
@@ -446,12 +454,15 @@
         <v>10020</v>
       </c>
       <c r="F3" t="n">
-        <v>177.72413267</v>
+        <v>1604.25639921</v>
       </c>
       <c r="G3" t="n">
-        <v>9895.833333333334</v>
+        <v>9890.416666666666</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10100</v>
+        <v>10130</v>
       </c>
       <c r="C4" t="n">
-        <v>10150</v>
+        <v>10020</v>
       </c>
       <c r="D4" t="n">
-        <v>10150</v>
+        <v>10160</v>
       </c>
       <c r="E4" t="n">
-        <v>10100</v>
+        <v>10020</v>
       </c>
       <c r="F4" t="n">
-        <v>107.082</v>
+        <v>177.72413267</v>
       </c>
       <c r="G4" t="n">
-        <v>9904.25</v>
+        <v>9895.833333333334</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10150</v>
+        <v>10100</v>
       </c>
       <c r="C5" t="n">
         <v>10150</v>
@@ -495,15 +509,18 @@
         <v>10150</v>
       </c>
       <c r="E5" t="n">
-        <v>10150</v>
+        <v>10100</v>
       </c>
       <c r="F5" t="n">
-        <v>63</v>
+        <v>107.082</v>
       </c>
       <c r="G5" t="n">
-        <v>9911.75</v>
+        <v>9904.25</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10160</v>
+        <v>10150</v>
       </c>
       <c r="C6" t="n">
-        <v>10160</v>
+        <v>10150</v>
       </c>
       <c r="D6" t="n">
-        <v>10160</v>
+        <v>10150</v>
       </c>
       <c r="E6" t="n">
-        <v>10160</v>
+        <v>10150</v>
       </c>
       <c r="F6" t="n">
-        <v>44.26079291</v>
+        <v>63</v>
       </c>
       <c r="G6" t="n">
-        <v>9919.416666666666</v>
+        <v>9911.75</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>10160</v>
       </c>
       <c r="F7" t="n">
-        <v>32.5</v>
+        <v>44.26079291</v>
       </c>
       <c r="G7" t="n">
-        <v>9927.083333333334</v>
+        <v>9919.416666666666</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>10160</v>
       </c>
       <c r="F8" t="n">
-        <v>186.3713</v>
+        <v>32.5</v>
       </c>
       <c r="G8" t="n">
-        <v>9935.75</v>
+        <v>9927.083333333334</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>10160</v>
       </c>
       <c r="F9" t="n">
-        <v>48.5838</v>
+        <v>186.3713</v>
       </c>
       <c r="G9" t="n">
-        <v>9944.333333333334</v>
+        <v>9935.75</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10030</v>
+        <v>10160</v>
       </c>
       <c r="C10" t="n">
-        <v>9975</v>
+        <v>10160</v>
       </c>
       <c r="D10" t="n">
-        <v>10030</v>
+        <v>10160</v>
       </c>
       <c r="E10" t="n">
-        <v>9975</v>
+        <v>10160</v>
       </c>
       <c r="F10" t="n">
-        <v>629.3538</v>
+        <v>48.5838</v>
       </c>
       <c r="G10" t="n">
-        <v>9948.916666666666</v>
+        <v>9944.333333333334</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10140</v>
+        <v>10030</v>
       </c>
       <c r="C11" t="n">
-        <v>10100</v>
+        <v>9975</v>
       </c>
       <c r="D11" t="n">
-        <v>10140</v>
+        <v>10030</v>
       </c>
       <c r="E11" t="n">
-        <v>10100</v>
+        <v>9975</v>
       </c>
       <c r="F11" t="n">
-        <v>62.34</v>
+        <v>629.3538</v>
       </c>
       <c r="G11" t="n">
-        <v>9955.75</v>
+        <v>9948.916666666666</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10080</v>
+        <v>10140</v>
       </c>
       <c r="C12" t="n">
-        <v>10080</v>
+        <v>10100</v>
       </c>
       <c r="D12" t="n">
-        <v>10080</v>
+        <v>10140</v>
       </c>
       <c r="E12" t="n">
-        <v>10080</v>
+        <v>10100</v>
       </c>
       <c r="F12" t="n">
-        <v>55.14</v>
+        <v>62.34</v>
       </c>
       <c r="G12" t="n">
-        <v>9962.25</v>
+        <v>9955.75</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9985</v>
+        <v>10080</v>
       </c>
       <c r="C13" t="n">
-        <v>10090</v>
+        <v>10080</v>
       </c>
       <c r="D13" t="n">
-        <v>10090</v>
+        <v>10080</v>
       </c>
       <c r="E13" t="n">
-        <v>9985</v>
+        <v>10080</v>
       </c>
       <c r="F13" t="n">
-        <v>262.0066</v>
+        <v>55.14</v>
       </c>
       <c r="G13" t="n">
-        <v>9968.666666666666</v>
+        <v>9962.25</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9980</v>
+        <v>9985</v>
       </c>
       <c r="C14" t="n">
-        <v>9880</v>
+        <v>10090</v>
       </c>
       <c r="D14" t="n">
-        <v>9980</v>
+        <v>10090</v>
       </c>
       <c r="E14" t="n">
-        <v>9880</v>
+        <v>9985</v>
       </c>
       <c r="F14" t="n">
-        <v>30.8346</v>
+        <v>262.0066</v>
       </c>
       <c r="G14" t="n">
-        <v>9971.583333333334</v>
+        <v>9968.666666666666</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10070</v>
+        <v>9980</v>
       </c>
       <c r="C15" t="n">
-        <v>9995</v>
+        <v>9880</v>
       </c>
       <c r="D15" t="n">
-        <v>10070</v>
+        <v>9980</v>
       </c>
       <c r="E15" t="n">
-        <v>9995</v>
+        <v>9880</v>
       </c>
       <c r="F15" t="n">
-        <v>17.12790025</v>
+        <v>30.8346</v>
       </c>
       <c r="G15" t="n">
-        <v>9976</v>
+        <v>9971.583333333334</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>10070</v>
+      </c>
+      <c r="C16" t="n">
         <v>9995</v>
       </c>
-      <c r="C16" t="n">
-        <v>10000</v>
-      </c>
       <c r="D16" t="n">
-        <v>10000</v>
+        <v>10070</v>
       </c>
       <c r="E16" t="n">
         <v>9995</v>
       </c>
       <c r="F16" t="n">
-        <v>10.00221474</v>
+        <v>17.12790025</v>
       </c>
       <c r="G16" t="n">
-        <v>9980.5</v>
+        <v>9976</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9835</v>
+        <v>9995</v>
       </c>
       <c r="C17" t="n">
-        <v>9835</v>
+        <v>10000</v>
       </c>
       <c r="D17" t="n">
-        <v>9835</v>
+        <v>10000</v>
       </c>
       <c r="E17" t="n">
-        <v>9835</v>
+        <v>9995</v>
       </c>
       <c r="F17" t="n">
-        <v>16.0871</v>
+        <v>10.00221474</v>
       </c>
       <c r="G17" t="n">
-        <v>9982.25</v>
+        <v>9980.5</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9810</v>
+        <v>9835</v>
       </c>
       <c r="C18" t="n">
-        <v>9800</v>
+        <v>9835</v>
       </c>
       <c r="D18" t="n">
-        <v>9810</v>
+        <v>9835</v>
       </c>
       <c r="E18" t="n">
-        <v>9800</v>
+        <v>9835</v>
       </c>
       <c r="F18" t="n">
-        <v>84.14570000000001</v>
+        <v>16.0871</v>
       </c>
       <c r="G18" t="n">
-        <v>9983.416666666666</v>
+        <v>9982.25</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="C19" t="n">
-        <v>9980</v>
+        <v>9800</v>
       </c>
       <c r="D19" t="n">
-        <v>9980</v>
+        <v>9810</v>
       </c>
       <c r="E19" t="n">
-        <v>9830</v>
+        <v>9800</v>
       </c>
       <c r="F19" t="n">
-        <v>227.5611</v>
+        <v>84.14570000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>9987.583333333334</v>
+        <v>9983.416666666666</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>9830</v>
+      </c>
+      <c r="C20" t="n">
         <v>9980</v>
       </c>
-      <c r="C20" t="n">
-        <v>10000</v>
-      </c>
       <c r="D20" t="n">
-        <v>10000</v>
+        <v>9980</v>
       </c>
       <c r="E20" t="n">
-        <v>9980</v>
+        <v>9830</v>
       </c>
       <c r="F20" t="n">
-        <v>32.5</v>
+        <v>227.5611</v>
       </c>
       <c r="G20" t="n">
-        <v>9992.083333333334</v>
+        <v>9987.583333333334</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,7 +964,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9990</v>
+        <v>9980</v>
       </c>
       <c r="C21" t="n">
         <v>10000</v>
@@ -911,15 +973,18 @@
         <v>10000</v>
       </c>
       <c r="E21" t="n">
-        <v>9990</v>
+        <v>9980</v>
       </c>
       <c r="F21" t="n">
-        <v>74</v>
+        <v>32.5</v>
       </c>
       <c r="G21" t="n">
-        <v>9996.583333333334</v>
+        <v>9992.083333333334</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>9990</v>
+      </c>
+      <c r="C22" t="n">
         <v>10000</v>
       </c>
-      <c r="C22" t="n">
-        <v>10100</v>
-      </c>
       <c r="D22" t="n">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="E22" t="n">
-        <v>10000</v>
+        <v>9990</v>
       </c>
       <c r="F22" t="n">
-        <v>562.04948501</v>
+        <v>74</v>
       </c>
       <c r="G22" t="n">
-        <v>10002.75</v>
+        <v>9996.583333333334</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10040</v>
+        <v>10000</v>
       </c>
       <c r="C23" t="n">
-        <v>10040</v>
+        <v>10100</v>
       </c>
       <c r="D23" t="n">
-        <v>10040</v>
+        <v>10100</v>
       </c>
       <c r="E23" t="n">
-        <v>10040</v>
+        <v>10000</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>562.04948501</v>
       </c>
       <c r="G23" t="n">
-        <v>10007.91666666667</v>
+        <v>10002.75</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9915</v>
+        <v>10040</v>
       </c>
       <c r="C24" t="n">
-        <v>9915</v>
+        <v>10040</v>
       </c>
       <c r="D24" t="n">
-        <v>9915</v>
+        <v>10040</v>
       </c>
       <c r="E24" t="n">
-        <v>9915</v>
+        <v>10040</v>
       </c>
       <c r="F24" t="n">
-        <v>19.1997</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>10011</v>
+        <v>10007.91666666667</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1009,21 +1083,24 @@
         <v>9915</v>
       </c>
       <c r="C25" t="n">
-        <v>10010</v>
+        <v>9915</v>
       </c>
       <c r="D25" t="n">
-        <v>10010</v>
+        <v>9915</v>
       </c>
       <c r="E25" t="n">
         <v>9915</v>
       </c>
       <c r="F25" t="n">
-        <v>37.2674</v>
+        <v>19.1997</v>
       </c>
       <c r="G25" t="n">
-        <v>10015.66666666667</v>
+        <v>10011</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9970</v>
+        <v>9915</v>
       </c>
       <c r="C26" t="n">
-        <v>9940</v>
+        <v>10010</v>
       </c>
       <c r="D26" t="n">
-        <v>9970</v>
+        <v>10010</v>
       </c>
       <c r="E26" t="n">
-        <v>9940</v>
+        <v>9915</v>
       </c>
       <c r="F26" t="n">
-        <v>36</v>
+        <v>37.2674</v>
       </c>
       <c r="G26" t="n">
-        <v>10019.16666666667</v>
+        <v>10015.66666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9840</v>
+        <v>9970</v>
       </c>
       <c r="C27" t="n">
-        <v>9995</v>
+        <v>9940</v>
       </c>
       <c r="D27" t="n">
-        <v>9995</v>
+        <v>9970</v>
       </c>
       <c r="E27" t="n">
-        <v>9840</v>
+        <v>9940</v>
       </c>
       <c r="F27" t="n">
-        <v>101.6151</v>
+        <v>36</v>
       </c>
       <c r="G27" t="n">
-        <v>10023.58333333333</v>
+        <v>10019.16666666667</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9920</v>
+        <v>9840</v>
       </c>
       <c r="C28" t="n">
-        <v>9910</v>
+        <v>9995</v>
       </c>
       <c r="D28" t="n">
-        <v>9920</v>
+        <v>9995</v>
       </c>
       <c r="E28" t="n">
-        <v>9910</v>
+        <v>9840</v>
       </c>
       <c r="F28" t="n">
-        <v>10.8171</v>
+        <v>101.6151</v>
       </c>
       <c r="G28" t="n">
-        <v>10026.58333333333</v>
+        <v>10023.58333333333</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9900</v>
+        <v>9920</v>
       </c>
       <c r="C29" t="n">
-        <v>9900</v>
+        <v>9910</v>
       </c>
       <c r="D29" t="n">
-        <v>9905</v>
+        <v>9920</v>
       </c>
       <c r="E29" t="n">
-        <v>9870</v>
+        <v>9910</v>
       </c>
       <c r="F29" t="n">
-        <v>168.2356</v>
+        <v>10.8171</v>
       </c>
       <c r="G29" t="n">
-        <v>10028.25</v>
+        <v>10026.58333333333</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9875</v>
+        <v>9900</v>
       </c>
       <c r="C30" t="n">
-        <v>9860</v>
+        <v>9900</v>
       </c>
       <c r="D30" t="n">
-        <v>9875</v>
+        <v>9905</v>
       </c>
       <c r="E30" t="n">
-        <v>9860</v>
+        <v>9870</v>
       </c>
       <c r="F30" t="n">
-        <v>26</v>
+        <v>168.2356</v>
       </c>
       <c r="G30" t="n">
-        <v>10029.25</v>
+        <v>10028.25</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9860</v>
+        <v>9875</v>
       </c>
       <c r="C31" t="n">
         <v>9860</v>
       </c>
       <c r="D31" t="n">
-        <v>9865</v>
+        <v>9875</v>
       </c>
       <c r="E31" t="n">
         <v>9860</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G31" t="n">
-        <v>10029.83333333333</v>
+        <v>10029.25</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9750</v>
+        <v>9860</v>
       </c>
       <c r="C32" t="n">
-        <v>9750</v>
+        <v>9860</v>
       </c>
       <c r="D32" t="n">
-        <v>9750</v>
+        <v>9865</v>
       </c>
       <c r="E32" t="n">
-        <v>9750</v>
+        <v>9860</v>
       </c>
       <c r="F32" t="n">
-        <v>34.597</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>10028.5</v>
+        <v>10029.83333333333</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9670</v>
+        <v>9750</v>
       </c>
       <c r="C33" t="n">
-        <v>9780</v>
+        <v>9750</v>
       </c>
       <c r="D33" t="n">
-        <v>9785</v>
+        <v>9750</v>
       </c>
       <c r="E33" t="n">
-        <v>9630</v>
+        <v>9750</v>
       </c>
       <c r="F33" t="n">
-        <v>844.4372</v>
+        <v>34.597</v>
       </c>
       <c r="G33" t="n">
-        <v>10027.5</v>
+        <v>10028.5</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9655</v>
+        <v>9670</v>
       </c>
       <c r="C34" t="n">
-        <v>9760</v>
+        <v>9780</v>
       </c>
       <c r="D34" t="n">
-        <v>9770</v>
+        <v>9785</v>
       </c>
       <c r="E34" t="n">
-        <v>9655</v>
+        <v>9630</v>
       </c>
       <c r="F34" t="n">
-        <v>93.48090000000001</v>
+        <v>844.4372</v>
       </c>
       <c r="G34" t="n">
-        <v>10024.83333333333</v>
+        <v>10027.5</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>9655</v>
+      </c>
+      <c r="C35" t="n">
         <v>9760</v>
       </c>
-      <c r="C35" t="n">
-        <v>9780</v>
-      </c>
       <c r="D35" t="n">
-        <v>9780</v>
+        <v>9770</v>
       </c>
       <c r="E35" t="n">
-        <v>9645</v>
+        <v>9655</v>
       </c>
       <c r="F35" t="n">
-        <v>525.9692</v>
+        <v>93.48090000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>10022.41666666667</v>
+        <v>10024.83333333333</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9750</v>
+        <v>9760</v>
       </c>
       <c r="C36" t="n">
-        <v>9760</v>
+        <v>9780</v>
       </c>
       <c r="D36" t="n">
-        <v>9760</v>
+        <v>9780</v>
       </c>
       <c r="E36" t="n">
-        <v>9750</v>
+        <v>9645</v>
       </c>
       <c r="F36" t="n">
-        <v>72</v>
+        <v>525.9692</v>
       </c>
       <c r="G36" t="n">
-        <v>10019.58333333333</v>
+        <v>10022.41666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9745</v>
+        <v>9750</v>
       </c>
       <c r="C37" t="n">
+        <v>9760</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9760</v>
+      </c>
+      <c r="E37" t="n">
         <v>9750</v>
       </c>
-      <c r="D37" t="n">
-        <v>9750</v>
-      </c>
-      <c r="E37" t="n">
-        <v>9745</v>
-      </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
-        <v>10015.41666666667</v>
+        <v>10019.58333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>9745</v>
+      </c>
+      <c r="C38" t="n">
         <v>9750</v>
-      </c>
-      <c r="C38" t="n">
-        <v>9635</v>
       </c>
       <c r="D38" t="n">
         <v>9750</v>
       </c>
       <c r="E38" t="n">
-        <v>9635</v>
+        <v>9745</v>
       </c>
       <c r="F38" t="n">
-        <v>451.6566</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>10009.33333333333</v>
+        <v>10015.41666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9630</v>
+        <v>9750</v>
       </c>
       <c r="C39" t="n">
-        <v>9695</v>
+        <v>9635</v>
       </c>
       <c r="D39" t="n">
-        <v>9740</v>
+        <v>9750</v>
       </c>
       <c r="E39" t="n">
-        <v>9600</v>
+        <v>9635</v>
       </c>
       <c r="F39" t="n">
-        <v>860.008</v>
+        <v>451.6566</v>
       </c>
       <c r="G39" t="n">
-        <v>10004.08333333333</v>
+        <v>10009.33333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9695</v>
+        <v>9630</v>
       </c>
       <c r="C40" t="n">
         <v>9695</v>
       </c>
       <c r="D40" t="n">
-        <v>9695</v>
+        <v>9740</v>
       </c>
       <c r="E40" t="n">
-        <v>9695</v>
+        <v>9600</v>
       </c>
       <c r="F40" t="n">
-        <v>35</v>
+        <v>860.008</v>
       </c>
       <c r="G40" t="n">
-        <v>9999</v>
+        <v>10004.08333333333</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9600</v>
+        <v>9695</v>
       </c>
       <c r="C41" t="n">
-        <v>9670</v>
+        <v>9695</v>
       </c>
       <c r="D41" t="n">
-        <v>9670</v>
+        <v>9695</v>
       </c>
       <c r="E41" t="n">
-        <v>9595</v>
+        <v>9695</v>
       </c>
       <c r="F41" t="n">
-        <v>129.1925</v>
+        <v>35</v>
       </c>
       <c r="G41" t="n">
-        <v>9993.333333333334</v>
+        <v>9999</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>9600</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9670</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9670</v>
+      </c>
+      <c r="E42" t="n">
         <v>9595</v>
       </c>
-      <c r="C42" t="n">
-        <v>9570</v>
-      </c>
-      <c r="D42" t="n">
-        <v>9595</v>
-      </c>
-      <c r="E42" t="n">
-        <v>9570</v>
-      </c>
       <c r="F42" t="n">
-        <v>254.6913</v>
+        <v>129.1925</v>
       </c>
       <c r="G42" t="n">
-        <v>9986.5</v>
+        <v>9993.333333333334</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9570</v>
+        <v>9595</v>
       </c>
       <c r="C43" t="n">
         <v>9570</v>
       </c>
       <c r="D43" t="n">
-        <v>9575</v>
+        <v>9595</v>
       </c>
       <c r="E43" t="n">
         <v>9570</v>
       </c>
       <c r="F43" t="n">
-        <v>101.063</v>
+        <v>254.6913</v>
       </c>
       <c r="G43" t="n">
-        <v>9979.666666666666</v>
+        <v>9986.5</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1503,21 +1634,24 @@
         <v>9570</v>
       </c>
       <c r="C44" t="n">
-        <v>9550</v>
+        <v>9570</v>
       </c>
       <c r="D44" t="n">
+        <v>9575</v>
+      </c>
+      <c r="E44" t="n">
         <v>9570</v>
       </c>
-      <c r="E44" t="n">
-        <v>9550</v>
-      </c>
       <c r="F44" t="n">
-        <v>177.347</v>
+        <v>101.063</v>
       </c>
       <c r="G44" t="n">
-        <v>9970.5</v>
+        <v>9979.666666666666</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>9570</v>
+      </c>
+      <c r="C45" t="n">
         <v>9550</v>
       </c>
-      <c r="C45" t="n">
-        <v>9500</v>
-      </c>
       <c r="D45" t="n">
+        <v>9570</v>
+      </c>
+      <c r="E45" t="n">
         <v>9550</v>
       </c>
-      <c r="E45" t="n">
-        <v>9495</v>
-      </c>
       <c r="F45" t="n">
-        <v>518.9675999999999</v>
+        <v>177.347</v>
       </c>
       <c r="G45" t="n">
-        <v>9960.5</v>
+        <v>9970.5</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C46" t="n">
+        <v>9500</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E46" t="n">
         <v>9495</v>
       </c>
-      <c r="C46" t="n">
-        <v>9490</v>
-      </c>
-      <c r="D46" t="n">
-        <v>9500</v>
-      </c>
-      <c r="E46" t="n">
-        <v>9485</v>
-      </c>
       <c r="F46" t="n">
-        <v>132.7348</v>
+        <v>518.9675999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>9950.333333333334</v>
+        <v>9960.5</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1584,18 +1724,21 @@
         <v>9490</v>
       </c>
       <c r="D47" t="n">
-        <v>9495</v>
+        <v>9500</v>
       </c>
       <c r="E47" t="n">
         <v>9485</v>
       </c>
       <c r="F47" t="n">
-        <v>209.7856</v>
+        <v>132.7348</v>
       </c>
       <c r="G47" t="n">
-        <v>9940.166666666666</v>
+        <v>9950.333333333334</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>9495</v>
+      </c>
+      <c r="C48" t="n">
+        <v>9490</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9495</v>
+      </c>
+      <c r="E48" t="n">
         <v>9485</v>
       </c>
-      <c r="C48" t="n">
-        <v>9440</v>
-      </c>
-      <c r="D48" t="n">
-        <v>9485</v>
-      </c>
-      <c r="E48" t="n">
-        <v>9440</v>
-      </c>
       <c r="F48" t="n">
-        <v>82.64060000000001</v>
+        <v>209.7856</v>
       </c>
       <c r="G48" t="n">
-        <v>9928.833333333334</v>
+        <v>9940.166666666666</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>9485</v>
+      </c>
+      <c r="C49" t="n">
         <v>9440</v>
       </c>
-      <c r="C49" t="n">
-        <v>9455</v>
-      </c>
       <c r="D49" t="n">
-        <v>9455</v>
+        <v>9485</v>
       </c>
       <c r="E49" t="n">
         <v>9440</v>
       </c>
       <c r="F49" t="n">
-        <v>227.6278</v>
+        <v>82.64060000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>9917.75</v>
+        <v>9928.833333333334</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>9440</v>
+      </c>
+      <c r="C50" t="n">
         <v>9455</v>
-      </c>
-      <c r="C50" t="n">
-        <v>9445</v>
       </c>
       <c r="D50" t="n">
         <v>9455</v>
       </c>
       <c r="E50" t="n">
-        <v>9445</v>
+        <v>9440</v>
       </c>
       <c r="F50" t="n">
-        <v>23.1887</v>
+        <v>227.6278</v>
       </c>
       <c r="G50" t="n">
-        <v>9906.166666666666</v>
+        <v>9917.75</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>9455</v>
+      </c>
+      <c r="C51" t="n">
         <v>9445</v>
       </c>
-      <c r="C51" t="n">
-        <v>9440</v>
-      </c>
       <c r="D51" t="n">
+        <v>9455</v>
+      </c>
+      <c r="E51" t="n">
         <v>9445</v>
       </c>
-      <c r="E51" t="n">
-        <v>9440</v>
-      </c>
       <c r="F51" t="n">
-        <v>97.3865</v>
+        <v>23.1887</v>
       </c>
       <c r="G51" t="n">
-        <v>9894.5</v>
+        <v>9906.166666666666</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,21 +1866,24 @@
         <v>9445</v>
       </c>
       <c r="C52" t="n">
-        <v>9430</v>
+        <v>9440</v>
       </c>
       <c r="D52" t="n">
-        <v>9450</v>
+        <v>9445</v>
       </c>
       <c r="E52" t="n">
-        <v>9430</v>
+        <v>9440</v>
       </c>
       <c r="F52" t="n">
-        <v>165.0508</v>
+        <v>97.3865</v>
       </c>
       <c r="G52" t="n">
-        <v>9882.666666666666</v>
+        <v>9894.5</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9435</v>
+        <v>9445</v>
       </c>
       <c r="C53" t="n">
-        <v>9435</v>
+        <v>9430</v>
       </c>
       <c r="D53" t="n">
-        <v>9435</v>
+        <v>9450</v>
       </c>
       <c r="E53" t="n">
-        <v>9435</v>
+        <v>9430</v>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>165.0508</v>
       </c>
       <c r="G53" t="n">
-        <v>9870.583333333334</v>
+        <v>9882.666666666666</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>9435</v>
       </c>
       <c r="F54" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G54" t="n">
-        <v>9858.833333333334</v>
+        <v>9870.583333333334</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,21 +1953,24 @@
         <v>9435</v>
       </c>
       <c r="C55" t="n">
-        <v>9400</v>
+        <v>9435</v>
       </c>
       <c r="D55" t="n">
         <v>9435</v>
       </c>
       <c r="E55" t="n">
-        <v>9400</v>
+        <v>9435</v>
       </c>
       <c r="F55" t="n">
-        <v>219.6466</v>
+        <v>27</v>
       </c>
       <c r="G55" t="n">
-        <v>9848.166666666666</v>
+        <v>9858.833333333334</v>
       </c>
       <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9405</v>
+        <v>9435</v>
       </c>
       <c r="C56" t="n">
-        <v>9410</v>
+        <v>9400</v>
       </c>
       <c r="D56" t="n">
-        <v>9415</v>
+        <v>9435</v>
       </c>
       <c r="E56" t="n">
-        <v>9405</v>
+        <v>9400</v>
       </c>
       <c r="F56" t="n">
-        <v>265.9343</v>
+        <v>219.6466</v>
       </c>
       <c r="G56" t="n">
-        <v>9836.166666666666</v>
+        <v>9848.166666666666</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1841,21 +2011,24 @@
         <v>9405</v>
       </c>
       <c r="C57" t="n">
-        <v>9435</v>
+        <v>9410</v>
       </c>
       <c r="D57" t="n">
-        <v>9435</v>
+        <v>9415</v>
       </c>
       <c r="E57" t="n">
         <v>9405</v>
       </c>
       <c r="F57" t="n">
-        <v>17.1806</v>
+        <v>265.9343</v>
       </c>
       <c r="G57" t="n">
-        <v>9825.416666666666</v>
+        <v>9836.166666666666</v>
       </c>
       <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>9405</v>
+      </c>
+      <c r="C58" t="n">
         <v>9435</v>
       </c>
-      <c r="C58" t="n">
-        <v>9465</v>
-      </c>
       <c r="D58" t="n">
-        <v>9465</v>
+        <v>9435</v>
       </c>
       <c r="E58" t="n">
-        <v>9425</v>
+        <v>9405</v>
       </c>
       <c r="F58" t="n">
-        <v>49.3572</v>
+        <v>17.1806</v>
       </c>
       <c r="G58" t="n">
-        <v>9814.166666666666</v>
+        <v>9825.416666666666</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9490</v>
+        <v>9435</v>
       </c>
       <c r="C59" t="n">
-        <v>9405</v>
+        <v>9465</v>
       </c>
       <c r="D59" t="n">
-        <v>9490</v>
+        <v>9465</v>
       </c>
       <c r="E59" t="n">
-        <v>9405</v>
+        <v>9425</v>
       </c>
       <c r="F59" t="n">
-        <v>14.4395</v>
+        <v>49.3572</v>
       </c>
       <c r="G59" t="n">
-        <v>9801.916666666666</v>
+        <v>9814.166666666666</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9485</v>
+        <v>9490</v>
       </c>
       <c r="C60" t="n">
-        <v>9485</v>
+        <v>9405</v>
       </c>
       <c r="D60" t="n">
-        <v>9485</v>
+        <v>9490</v>
       </c>
       <c r="E60" t="n">
-        <v>9485</v>
+        <v>9405</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>14.4395</v>
       </c>
       <c r="G60" t="n">
-        <v>9791</v>
+        <v>9801.916666666666</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>9485</v>
       </c>
       <c r="F61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>9780.916666666666</v>
+        <v>9791</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9445</v>
+        <v>9485</v>
       </c>
       <c r="C62" t="n">
-        <v>9445</v>
+        <v>9485</v>
       </c>
       <c r="D62" t="n">
-        <v>9445</v>
+        <v>9485</v>
       </c>
       <c r="E62" t="n">
-        <v>9445</v>
+        <v>9485</v>
       </c>
       <c r="F62" t="n">
-        <v>1.7394</v>
+        <v>4</v>
       </c>
       <c r="G62" t="n">
-        <v>9771.333333333334</v>
+        <v>9780.916666666666</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>9445</v>
       </c>
       <c r="F63" t="n">
-        <v>20.9312</v>
+        <v>1.7394</v>
       </c>
       <c r="G63" t="n">
-        <v>9761.75</v>
+        <v>9771.333333333334</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9475</v>
+        <v>9445</v>
       </c>
       <c r="C64" t="n">
-        <v>9475</v>
+        <v>9445</v>
       </c>
       <c r="D64" t="n">
-        <v>9475</v>
+        <v>9445</v>
       </c>
       <c r="E64" t="n">
-        <v>9475</v>
+        <v>9445</v>
       </c>
       <c r="F64" t="n">
-        <v>9.6342</v>
+        <v>20.9312</v>
       </c>
       <c r="G64" t="n">
-        <v>9750.5</v>
+        <v>9761.75</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9500</v>
+        <v>9475</v>
       </c>
       <c r="C65" t="n">
-        <v>9500</v>
+        <v>9475</v>
       </c>
       <c r="D65" t="n">
-        <v>9500</v>
+        <v>9475</v>
       </c>
       <c r="E65" t="n">
-        <v>9500</v>
+        <v>9475</v>
       </c>
       <c r="F65" t="n">
-        <v>1.893</v>
+        <v>9.6342</v>
       </c>
       <c r="G65" t="n">
-        <v>9739.666666666666</v>
+        <v>9750.5</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9565</v>
+        <v>9500</v>
       </c>
       <c r="C66" t="n">
-        <v>9565</v>
+        <v>9500</v>
       </c>
       <c r="D66" t="n">
-        <v>9565</v>
+        <v>9500</v>
       </c>
       <c r="E66" t="n">
-        <v>9565</v>
+        <v>9500</v>
       </c>
       <c r="F66" t="n">
-        <v>1.0085</v>
+        <v>1.893</v>
       </c>
       <c r="G66" t="n">
-        <v>9729.75</v>
+        <v>9739.666666666666</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9515</v>
+        <v>9565</v>
       </c>
       <c r="C67" t="n">
-        <v>9510</v>
+        <v>9565</v>
       </c>
       <c r="D67" t="n">
-        <v>9515</v>
+        <v>9565</v>
       </c>
       <c r="E67" t="n">
-        <v>9510</v>
+        <v>9565</v>
       </c>
       <c r="F67" t="n">
-        <v>156.8461</v>
+        <v>1.0085</v>
       </c>
       <c r="G67" t="n">
-        <v>9718.916666666666</v>
+        <v>9729.75</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9495</v>
+        <v>9515</v>
       </c>
       <c r="C68" t="n">
-        <v>9485</v>
+        <v>9510</v>
       </c>
       <c r="D68" t="n">
-        <v>9495</v>
+        <v>9515</v>
       </c>
       <c r="E68" t="n">
-        <v>9485</v>
+        <v>9510</v>
       </c>
       <c r="F68" t="n">
-        <v>400.7795</v>
+        <v>156.8461</v>
       </c>
       <c r="G68" t="n">
-        <v>9707.666666666666</v>
+        <v>9718.916666666666</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="C69" t="n">
-        <v>9550</v>
+        <v>9485</v>
       </c>
       <c r="D69" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="E69" t="n">
-        <v>9550</v>
+        <v>9485</v>
       </c>
       <c r="F69" t="n">
-        <v>30.5</v>
+        <v>400.7795</v>
       </c>
       <c r="G69" t="n">
-        <v>9697.5</v>
+        <v>9707.666666666666</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9530</v>
+        <v>9550</v>
       </c>
       <c r="C70" t="n">
-        <v>9530</v>
+        <v>9550</v>
       </c>
       <c r="D70" t="n">
-        <v>9530</v>
+        <v>9550</v>
       </c>
       <c r="E70" t="n">
-        <v>9530</v>
+        <v>9550</v>
       </c>
       <c r="F70" t="n">
-        <v>40.5</v>
+        <v>30.5</v>
       </c>
       <c r="G70" t="n">
-        <v>9690.083333333334</v>
+        <v>9697.5</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,7 +2414,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9525</v>
+        <v>9530</v>
       </c>
       <c r="C71" t="n">
         <v>9530</v>
@@ -2211,15 +2423,18 @@
         <v>9530</v>
       </c>
       <c r="E71" t="n">
-        <v>9525</v>
+        <v>9530</v>
       </c>
       <c r="F71" t="n">
-        <v>34.5</v>
+        <v>40.5</v>
       </c>
       <c r="G71" t="n">
-        <v>9680.583333333334</v>
+        <v>9690.083333333334</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9465</v>
+        <v>9525</v>
       </c>
       <c r="C72" t="n">
-        <v>9465</v>
+        <v>9530</v>
       </c>
       <c r="D72" t="n">
-        <v>9465</v>
+        <v>9530</v>
       </c>
       <c r="E72" t="n">
-        <v>9465</v>
+        <v>9525</v>
       </c>
       <c r="F72" t="n">
-        <v>0.367</v>
+        <v>34.5</v>
       </c>
       <c r="G72" t="n">
-        <v>9670.333333333334</v>
+        <v>9680.583333333334</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9460</v>
+        <v>9465</v>
       </c>
       <c r="C73" t="n">
-        <v>9450</v>
+        <v>9465</v>
       </c>
       <c r="D73" t="n">
-        <v>9460</v>
+        <v>9465</v>
       </c>
       <c r="E73" t="n">
-        <v>9450</v>
+        <v>9465</v>
       </c>
       <c r="F73" t="n">
-        <v>168.3499</v>
+        <v>0.367</v>
       </c>
       <c r="G73" t="n">
-        <v>9659.666666666666</v>
+        <v>9670.333333333334</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9515</v>
+        <v>9460</v>
       </c>
       <c r="C74" t="n">
-        <v>9515</v>
+        <v>9450</v>
       </c>
       <c r="D74" t="n">
-        <v>9515</v>
+        <v>9460</v>
       </c>
       <c r="E74" t="n">
-        <v>9515</v>
+        <v>9450</v>
       </c>
       <c r="F74" t="n">
-        <v>6.46</v>
+        <v>168.3499</v>
       </c>
       <c r="G74" t="n">
-        <v>9653.583333333334</v>
+        <v>9659.666666666666</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>9515</v>
       </c>
       <c r="F75" t="n">
-        <v>22</v>
+        <v>6.46</v>
       </c>
       <c r="G75" t="n">
-        <v>9645.583333333334</v>
+        <v>9653.583333333334</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>9515</v>
       </c>
       <c r="F76" t="n">
-        <v>1.051</v>
+        <v>22</v>
       </c>
       <c r="G76" t="n">
-        <v>9637.5</v>
+        <v>9645.583333333334</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,7 +2588,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="C77" t="n">
         <v>9515</v>
@@ -2367,15 +2597,18 @@
         <v>9515</v>
       </c>
       <c r="E77" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="F77" t="n">
-        <v>26</v>
+        <v>1.051</v>
       </c>
       <c r="G77" t="n">
-        <v>9632.166666666666</v>
+        <v>9637.5</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>9510</v>
+      </c>
+      <c r="C78" t="n">
         <v>9515</v>
       </c>
-      <c r="C78" t="n">
-        <v>9520</v>
-      </c>
       <c r="D78" t="n">
-        <v>9520</v>
+        <v>9515</v>
       </c>
       <c r="E78" t="n">
-        <v>9515</v>
+        <v>9510</v>
       </c>
       <c r="F78" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G78" t="n">
-        <v>9627.5</v>
+        <v>9632.166666666666</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,7 +2646,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9520</v>
+        <v>9515</v>
       </c>
       <c r="C79" t="n">
         <v>9520</v>
@@ -2419,15 +2655,18 @@
         <v>9520</v>
       </c>
       <c r="E79" t="n">
-        <v>9520</v>
+        <v>9515</v>
       </c>
       <c r="F79" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G79" t="n">
-        <v>9619.833333333334</v>
+        <v>9627.5</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>9520</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G80" t="n">
-        <v>9611.833333333334</v>
+        <v>9619.833333333334</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>9520</v>
       </c>
       <c r="F81" t="n">
-        <v>8.43</v>
+        <v>2</v>
       </c>
       <c r="G81" t="n">
-        <v>9603.833333333334</v>
+        <v>9611.833333333334</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9515</v>
+        <v>9520</v>
       </c>
       <c r="C82" t="n">
-        <v>9515</v>
+        <v>9520</v>
       </c>
       <c r="D82" t="n">
-        <v>9515</v>
+        <v>9520</v>
       </c>
       <c r="E82" t="n">
-        <v>9515</v>
+        <v>9520</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>8.43</v>
       </c>
       <c r="G82" t="n">
-        <v>9594.083333333334</v>
+        <v>9603.833333333334</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,7 +2762,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="C83" t="n">
         <v>9515</v>
@@ -2523,15 +2771,18 @@
         <v>9515</v>
       </c>
       <c r="E83" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="F83" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G83" t="n">
-        <v>9585.333333333334</v>
+        <v>9594.083333333334</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,10 +2791,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>9510</v>
+      </c>
+      <c r="C84" t="n">
         <v>9515</v>
-      </c>
-      <c r="C84" t="n">
-        <v>9510</v>
       </c>
       <c r="D84" t="n">
         <v>9515</v>
@@ -2552,12 +2803,15 @@
         <v>9510</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G84" t="n">
-        <v>9578.583333333334</v>
+        <v>9585.333333333334</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>9515</v>
+      </c>
+      <c r="C85" t="n">
         <v>9510</v>
       </c>
-      <c r="C85" t="n">
-        <v>9545</v>
-      </c>
       <c r="D85" t="n">
-        <v>9545</v>
+        <v>9515</v>
       </c>
       <c r="E85" t="n">
         <v>9510</v>
       </c>
       <c r="F85" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>9570.833333333334</v>
+        <v>9578.583333333334</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="C86" t="n">
-        <v>9555</v>
+        <v>9545</v>
       </c>
       <c r="D86" t="n">
-        <v>9555</v>
+        <v>9545</v>
       </c>
       <c r="E86" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="F86" t="n">
         <v>12</v>
       </c>
       <c r="G86" t="n">
-        <v>9564.416666666666</v>
+        <v>9570.833333333334</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9595</v>
+        <v>9550</v>
       </c>
       <c r="C87" t="n">
-        <v>9595</v>
+        <v>9555</v>
       </c>
       <c r="D87" t="n">
-        <v>9595</v>
+        <v>9555</v>
       </c>
       <c r="E87" t="n">
-        <v>9595</v>
+        <v>9550</v>
       </c>
       <c r="F87" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G87" t="n">
-        <v>9557.75</v>
+        <v>9564.416666666666</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>9595</v>
       </c>
       <c r="F88" t="n">
-        <v>63.5</v>
+        <v>34</v>
       </c>
       <c r="G88" t="n">
-        <v>9552.5</v>
+        <v>9557.75</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>9595</v>
       </c>
       <c r="F89" t="n">
-        <v>42.8571</v>
+        <v>63.5</v>
       </c>
       <c r="G89" t="n">
-        <v>9547.416666666666</v>
+        <v>9552.5</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9590</v>
+        <v>9595</v>
       </c>
       <c r="C90" t="n">
-        <v>9585</v>
+        <v>9595</v>
       </c>
       <c r="D90" t="n">
-        <v>9600</v>
+        <v>9595</v>
       </c>
       <c r="E90" t="n">
-        <v>9585</v>
+        <v>9595</v>
       </c>
       <c r="F90" t="n">
-        <v>122.5</v>
+        <v>42.8571</v>
       </c>
       <c r="G90" t="n">
-        <v>9542.833333333334</v>
+        <v>9547.416666666666</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9580</v>
+        <v>9590</v>
       </c>
       <c r="C91" t="n">
-        <v>9580</v>
+        <v>9585</v>
       </c>
       <c r="D91" t="n">
-        <v>9580</v>
+        <v>9600</v>
       </c>
       <c r="E91" t="n">
-        <v>9580</v>
+        <v>9585</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>122.5</v>
       </c>
       <c r="G91" t="n">
-        <v>9538.166666666666</v>
+        <v>9542.833333333334</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9600</v>
+        <v>9580</v>
       </c>
       <c r="C92" t="n">
-        <v>9600</v>
+        <v>9580</v>
       </c>
       <c r="D92" t="n">
-        <v>9600</v>
+        <v>9580</v>
       </c>
       <c r="E92" t="n">
-        <v>9600</v>
+        <v>9580</v>
       </c>
       <c r="F92" t="n">
-        <v>27.08</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>9535.666666666666</v>
+        <v>9538.166666666666</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9595</v>
+        <v>9600</v>
       </c>
       <c r="C93" t="n">
-        <v>9530</v>
+        <v>9600</v>
       </c>
       <c r="D93" t="n">
-        <v>9595</v>
+        <v>9600</v>
       </c>
       <c r="E93" t="n">
-        <v>9530</v>
+        <v>9600</v>
       </c>
       <c r="F93" t="n">
-        <v>18</v>
+        <v>27.08</v>
       </c>
       <c r="G93" t="n">
-        <v>9531.5</v>
+        <v>9535.666666666666</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9600</v>
+        <v>9595</v>
       </c>
       <c r="C94" t="n">
-        <v>9600</v>
+        <v>9530</v>
       </c>
       <c r="D94" t="n">
-        <v>9600</v>
+        <v>9595</v>
       </c>
       <c r="E94" t="n">
-        <v>9600</v>
+        <v>9530</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G94" t="n">
-        <v>9528.833333333334</v>
+        <v>9531.5</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>9600</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>9525.833333333334</v>
+        <v>9528.833333333334</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9520</v>
+        <v>9600</v>
       </c>
       <c r="C96" t="n">
-        <v>9515</v>
+        <v>9600</v>
       </c>
       <c r="D96" t="n">
-        <v>9520</v>
+        <v>9600</v>
       </c>
       <c r="E96" t="n">
-        <v>9515</v>
+        <v>9600</v>
       </c>
       <c r="F96" t="n">
-        <v>111.1119</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>9521.75</v>
+        <v>9525.833333333334</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9590</v>
+        <v>9520</v>
       </c>
       <c r="C97" t="n">
-        <v>9590</v>
+        <v>9515</v>
       </c>
       <c r="D97" t="n">
-        <v>9590</v>
+        <v>9520</v>
       </c>
       <c r="E97" t="n">
-        <v>9590</v>
+        <v>9515</v>
       </c>
       <c r="F97" t="n">
-        <v>12.3186</v>
+        <v>111.1119</v>
       </c>
       <c r="G97" t="n">
-        <v>9519.083333333334</v>
+        <v>9521.75</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9595</v>
+        <v>9590</v>
       </c>
       <c r="C98" t="n">
-        <v>9595</v>
+        <v>9590</v>
       </c>
       <c r="D98" t="n">
-        <v>9595</v>
+        <v>9590</v>
       </c>
       <c r="E98" t="n">
-        <v>9595</v>
+        <v>9590</v>
       </c>
       <c r="F98" t="n">
-        <v>38</v>
+        <v>12.3186</v>
       </c>
       <c r="G98" t="n">
-        <v>9518.416666666666</v>
+        <v>9519.083333333334</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>9595</v>
       </c>
       <c r="F99" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G99" t="n">
-        <v>9516.75</v>
+        <v>9518.416666666666</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>9595</v>
       </c>
       <c r="F100" t="n">
-        <v>12.56</v>
+        <v>31</v>
       </c>
       <c r="G100" t="n">
-        <v>9515.083333333334</v>
+        <v>9516.75</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9500</v>
+        <v>9595</v>
       </c>
       <c r="C101" t="n">
-        <v>9500</v>
+        <v>9595</v>
       </c>
       <c r="D101" t="n">
-        <v>9500</v>
+        <v>9595</v>
       </c>
       <c r="E101" t="n">
-        <v>9500</v>
+        <v>9595</v>
       </c>
       <c r="F101" t="n">
-        <v>6.79</v>
+        <v>12.56</v>
       </c>
       <c r="G101" t="n">
-        <v>9512.25</v>
+        <v>9515.083333333334</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="C102" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="D102" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="E102" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="F102" t="n">
-        <v>3.39</v>
+        <v>6.79</v>
       </c>
       <c r="G102" t="n">
-        <v>9512.583333333334</v>
+        <v>9512.25</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9585</v>
+        <v>9590</v>
       </c>
       <c r="C103" t="n">
-        <v>9620</v>
+        <v>9590</v>
       </c>
       <c r="D103" t="n">
-        <v>9620</v>
+        <v>9590</v>
       </c>
       <c r="E103" t="n">
-        <v>9585</v>
+        <v>9590</v>
       </c>
       <c r="F103" t="n">
-        <v>80.5</v>
+        <v>3.39</v>
       </c>
       <c r="G103" t="n">
-        <v>9513.416666666666</v>
+        <v>9512.583333333334</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9600</v>
+        <v>9585</v>
       </c>
       <c r="C104" t="n">
-        <v>9600</v>
+        <v>9620</v>
       </c>
       <c r="D104" t="n">
-        <v>9600</v>
+        <v>9620</v>
       </c>
       <c r="E104" t="n">
-        <v>9600</v>
+        <v>9585</v>
       </c>
       <c r="F104" t="n">
-        <v>15.53</v>
+        <v>80.5</v>
       </c>
       <c r="G104" t="n">
-        <v>9514.25</v>
+        <v>9513.416666666666</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9615</v>
+        <v>9600</v>
       </c>
       <c r="C105" t="n">
-        <v>9640</v>
+        <v>9600</v>
       </c>
       <c r="D105" t="n">
-        <v>9640</v>
+        <v>9600</v>
       </c>
       <c r="E105" t="n">
-        <v>9615</v>
+        <v>9600</v>
       </c>
       <c r="F105" t="n">
-        <v>103.7212</v>
+        <v>15.53</v>
       </c>
       <c r="G105" t="n">
-        <v>9516.583333333334</v>
+        <v>9514.25</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9645</v>
+        <v>9615</v>
       </c>
       <c r="C106" t="n">
-        <v>9645</v>
+        <v>9640</v>
       </c>
       <c r="D106" t="n">
-        <v>9645</v>
+        <v>9640</v>
       </c>
       <c r="E106" t="n">
-        <v>9645</v>
+        <v>9615</v>
       </c>
       <c r="F106" t="n">
-        <v>42.8731</v>
+        <v>103.7212</v>
       </c>
       <c r="G106" t="n">
-        <v>9519.166666666666</v>
+        <v>9516.583333333334</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="C107" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="D107" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="E107" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="F107" t="n">
-        <v>6.35</v>
+        <v>42.8731</v>
       </c>
       <c r="G107" t="n">
-        <v>9521.666666666666</v>
+        <v>9519.166666666666</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9650</v>
+        <v>9640</v>
       </c>
       <c r="C108" t="n">
-        <v>9650</v>
+        <v>9640</v>
       </c>
       <c r="D108" t="n">
-        <v>9650</v>
+        <v>9640</v>
       </c>
       <c r="E108" t="n">
-        <v>9650</v>
+        <v>9640</v>
       </c>
       <c r="F108" t="n">
-        <v>6.18</v>
+        <v>6.35</v>
       </c>
       <c r="G108" t="n">
-        <v>9525.166666666666</v>
+        <v>9521.666666666666</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3193,21 +3519,24 @@
         <v>9650</v>
       </c>
       <c r="C109" t="n">
-        <v>9665</v>
+        <v>9650</v>
       </c>
       <c r="D109" t="n">
-        <v>9665</v>
+        <v>9650</v>
       </c>
       <c r="E109" t="n">
         <v>9650</v>
       </c>
       <c r="F109" t="n">
-        <v>14</v>
+        <v>6.18</v>
       </c>
       <c r="G109" t="n">
-        <v>9528.666666666666</v>
+        <v>9525.166666666666</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>9650</v>
+      </c>
+      <c r="C110" t="n">
         <v>9665</v>
       </c>
-      <c r="C110" t="n">
-        <v>9670</v>
-      </c>
       <c r="D110" t="n">
-        <v>9670</v>
+        <v>9665</v>
       </c>
       <c r="E110" t="n">
-        <v>9665</v>
+        <v>9650</v>
       </c>
       <c r="F110" t="n">
         <v>14</v>
       </c>
       <c r="G110" t="n">
-        <v>9532.416666666666</v>
+        <v>9528.666666666666</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>9665</v>
+      </c>
+      <c r="C111" t="n">
         <v>9670</v>
       </c>
-      <c r="C111" t="n">
-        <v>9700</v>
-      </c>
       <c r="D111" t="n">
-        <v>9700</v>
+        <v>9670</v>
       </c>
       <c r="E111" t="n">
-        <v>9670</v>
+        <v>9665</v>
       </c>
       <c r="F111" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G111" t="n">
-        <v>9536.75</v>
+        <v>9532.416666666666</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,7 +3603,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9700</v>
+        <v>9670</v>
       </c>
       <c r="C112" t="n">
         <v>9700</v>
@@ -3277,15 +3612,18 @@
         <v>9700</v>
       </c>
       <c r="E112" t="n">
-        <v>9700</v>
+        <v>9670</v>
       </c>
       <c r="F112" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="G112" t="n">
-        <v>9541.25</v>
+        <v>9536.75</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>9700</v>
       </c>
       <c r="F113" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="G113" t="n">
-        <v>9545.666666666666</v>
+        <v>9541.25</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,21 +3664,24 @@
         <v>9700</v>
       </c>
       <c r="C114" t="n">
-        <v>9710</v>
+        <v>9700</v>
       </c>
       <c r="D114" t="n">
-        <v>9710</v>
+        <v>9700</v>
       </c>
       <c r="E114" t="n">
         <v>9700</v>
       </c>
       <c r="F114" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>9550.25</v>
+        <v>9545.666666666666</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C115" t="n">
         <v>9710</v>
       </c>
-      <c r="C115" t="n">
-        <v>9720</v>
-      </c>
       <c r="D115" t="n">
-        <v>9720</v>
+        <v>9710</v>
       </c>
       <c r="E115" t="n">
-        <v>9710</v>
+        <v>9700</v>
       </c>
       <c r="F115" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G115" t="n">
-        <v>9555.583333333334</v>
+        <v>9550.25</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>9710</v>
+      </c>
+      <c r="C116" t="n">
         <v>9720</v>
       </c>
-      <c r="C116" t="n">
-        <v>9745</v>
-      </c>
       <c r="D116" t="n">
-        <v>9745</v>
+        <v>9720</v>
       </c>
       <c r="E116" t="n">
-        <v>9720</v>
+        <v>9710</v>
       </c>
       <c r="F116" t="n">
-        <v>33.4853</v>
+        <v>40</v>
       </c>
       <c r="G116" t="n">
-        <v>9561.166666666666</v>
+        <v>9555.583333333334</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9750</v>
+        <v>9720</v>
       </c>
       <c r="C117" t="n">
-        <v>9750</v>
+        <v>9745</v>
       </c>
       <c r="D117" t="n">
-        <v>9750</v>
+        <v>9745</v>
       </c>
       <c r="E117" t="n">
-        <v>9750</v>
+        <v>9720</v>
       </c>
       <c r="F117" t="n">
-        <v>6.26</v>
+        <v>33.4853</v>
       </c>
       <c r="G117" t="n">
-        <v>9566.416666666666</v>
+        <v>9561.166666666666</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9745</v>
+        <v>9750</v>
       </c>
       <c r="C118" t="n">
-        <v>9745</v>
+        <v>9750</v>
       </c>
       <c r="D118" t="n">
-        <v>9745</v>
+        <v>9750</v>
       </c>
       <c r="E118" t="n">
-        <v>9745</v>
+        <v>9750</v>
       </c>
       <c r="F118" t="n">
-        <v>10.1862</v>
+        <v>6.26</v>
       </c>
       <c r="G118" t="n">
-        <v>9571.083333333334</v>
+        <v>9566.416666666666</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9595</v>
+        <v>9745</v>
       </c>
       <c r="C119" t="n">
-        <v>9630</v>
+        <v>9745</v>
       </c>
       <c r="D119" t="n">
-        <v>9630</v>
+        <v>9745</v>
       </c>
       <c r="E119" t="n">
-        <v>9440</v>
+        <v>9745</v>
       </c>
       <c r="F119" t="n">
-        <v>77.9682</v>
+        <v>10.1862</v>
       </c>
       <c r="G119" t="n">
-        <v>9574.833333333334</v>
+        <v>9571.083333333334</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9580</v>
+        <v>9595</v>
       </c>
       <c r="C120" t="n">
-        <v>9580</v>
+        <v>9630</v>
       </c>
       <c r="D120" t="n">
-        <v>9580</v>
+        <v>9630</v>
       </c>
       <c r="E120" t="n">
-        <v>9580</v>
+        <v>9440</v>
       </c>
       <c r="F120" t="n">
-        <v>10.66</v>
+        <v>77.9682</v>
       </c>
       <c r="G120" t="n">
-        <v>9576.416666666666</v>
+        <v>9574.833333333334</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3514,12 +3876,15 @@
         <v>9580</v>
       </c>
       <c r="F121" t="n">
-        <v>17.18</v>
+        <v>10.66</v>
       </c>
       <c r="G121" t="n">
-        <v>9578</v>
+        <v>9576.416666666666</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9540</v>
+        <v>9580</v>
       </c>
       <c r="C122" t="n">
-        <v>9540</v>
+        <v>9580</v>
       </c>
       <c r="D122" t="n">
-        <v>9540</v>
+        <v>9580</v>
       </c>
       <c r="E122" t="n">
-        <v>9540</v>
+        <v>9580</v>
       </c>
       <c r="F122" t="n">
-        <v>4</v>
+        <v>17.18</v>
       </c>
       <c r="G122" t="n">
-        <v>9579.583333333334</v>
+        <v>9578</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>9540</v>
       </c>
       <c r="F123" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G123" t="n">
-        <v>9581.166666666666</v>
+        <v>9579.583333333334</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3583,21 +3954,24 @@
         <v>9540</v>
       </c>
       <c r="C124" t="n">
-        <v>9555</v>
+        <v>9540</v>
       </c>
       <c r="D124" t="n">
-        <v>9555</v>
+        <v>9540</v>
       </c>
       <c r="E124" t="n">
         <v>9540</v>
       </c>
       <c r="F124" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G124" t="n">
-        <v>9582.5</v>
+        <v>9581.166666666666</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,7 +3980,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9555</v>
+        <v>9540</v>
       </c>
       <c r="C125" t="n">
         <v>9555</v>
@@ -3615,15 +3989,18 @@
         <v>9555</v>
       </c>
       <c r="E125" t="n">
-        <v>9555</v>
+        <v>9540</v>
       </c>
       <c r="F125" t="n">
-        <v>31.2392</v>
+        <v>4</v>
       </c>
       <c r="G125" t="n">
-        <v>9583.416666666666</v>
+        <v>9582.5</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9575</v>
+        <v>9555</v>
       </c>
       <c r="C126" t="n">
-        <v>9575</v>
+        <v>9555</v>
       </c>
       <c r="D126" t="n">
-        <v>9575</v>
+        <v>9555</v>
       </c>
       <c r="E126" t="n">
-        <v>9575</v>
+        <v>9555</v>
       </c>
       <c r="F126" t="n">
-        <v>14</v>
+        <v>31.2392</v>
       </c>
       <c r="G126" t="n">
-        <v>9583.583333333334</v>
+        <v>9583.416666666666</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3661,21 +4041,24 @@
         <v>9575</v>
       </c>
       <c r="C127" t="n">
-        <v>9525</v>
+        <v>9575</v>
       </c>
       <c r="D127" t="n">
-        <v>9620</v>
+        <v>9575</v>
       </c>
       <c r="E127" t="n">
-        <v>9525</v>
+        <v>9575</v>
       </c>
       <c r="F127" t="n">
-        <v>18.9445</v>
+        <v>14</v>
       </c>
       <c r="G127" t="n">
-        <v>9583.833333333334</v>
+        <v>9583.583333333334</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C128" t="n">
+        <v>9525</v>
+      </c>
+      <c r="D128" t="n">
         <v>9620</v>
       </c>
-      <c r="C128" t="n">
-        <v>9625</v>
-      </c>
-      <c r="D128" t="n">
-        <v>9625</v>
-      </c>
       <c r="E128" t="n">
-        <v>9620</v>
+        <v>9525</v>
       </c>
       <c r="F128" t="n">
-        <v>33.5</v>
+        <v>18.9445</v>
       </c>
       <c r="G128" t="n">
-        <v>9586.166666666666</v>
+        <v>9583.833333333334</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>9620</v>
+      </c>
+      <c r="C129" t="n">
         <v>9625</v>
       </c>
-      <c r="C129" t="n">
-        <v>9645</v>
-      </c>
       <c r="D129" t="n">
-        <v>9645</v>
+        <v>9625</v>
       </c>
       <c r="E129" t="n">
-        <v>9625</v>
+        <v>9620</v>
       </c>
       <c r="F129" t="n">
-        <v>34</v>
+        <v>33.5</v>
       </c>
       <c r="G129" t="n">
-        <v>9587.75</v>
+        <v>9586.166666666666</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9650</v>
+        <v>9625</v>
       </c>
       <c r="C130" t="n">
-        <v>9650</v>
+        <v>9645</v>
       </c>
       <c r="D130" t="n">
-        <v>9650</v>
+        <v>9645</v>
       </c>
       <c r="E130" t="n">
-        <v>9650</v>
+        <v>9625</v>
       </c>
       <c r="F130" t="n">
-        <v>6.3843</v>
+        <v>34</v>
       </c>
       <c r="G130" t="n">
-        <v>9589.75</v>
+        <v>9587.75</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3765,21 +4157,24 @@
         <v>9650</v>
       </c>
       <c r="C131" t="n">
-        <v>9655</v>
+        <v>9650</v>
       </c>
       <c r="D131" t="n">
-        <v>9655</v>
+        <v>9650</v>
       </c>
       <c r="E131" t="n">
         <v>9650</v>
       </c>
       <c r="F131" t="n">
-        <v>7.9801</v>
+        <v>6.3843</v>
       </c>
       <c r="G131" t="n">
-        <v>9591.833333333334</v>
+        <v>9589.75</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9660</v>
+        <v>9650</v>
       </c>
       <c r="C132" t="n">
-        <v>9660</v>
+        <v>9655</v>
       </c>
       <c r="D132" t="n">
-        <v>9660</v>
+        <v>9655</v>
       </c>
       <c r="E132" t="n">
-        <v>9660</v>
+        <v>9650</v>
       </c>
       <c r="F132" t="n">
-        <v>12.59</v>
+        <v>7.9801</v>
       </c>
       <c r="G132" t="n">
-        <v>9595.083333333334</v>
+        <v>9591.833333333334</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9655</v>
+        <v>9660</v>
       </c>
       <c r="C133" t="n">
-        <v>9655</v>
+        <v>9660</v>
       </c>
       <c r="D133" t="n">
-        <v>9655</v>
+        <v>9660</v>
       </c>
       <c r="E133" t="n">
-        <v>9655</v>
+        <v>9660</v>
       </c>
       <c r="F133" t="n">
-        <v>8.430400000000001</v>
+        <v>12.59</v>
       </c>
       <c r="G133" t="n">
-        <v>9598.5</v>
+        <v>9595.083333333334</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9660</v>
+        <v>9655</v>
       </c>
       <c r="C134" t="n">
-        <v>9680</v>
+        <v>9655</v>
       </c>
       <c r="D134" t="n">
-        <v>9680</v>
+        <v>9655</v>
       </c>
       <c r="E134" t="n">
-        <v>9660</v>
+        <v>9655</v>
       </c>
       <c r="F134" t="n">
-        <v>30.99464793</v>
+        <v>8.430400000000001</v>
       </c>
       <c r="G134" t="n">
-        <v>9601.25</v>
+        <v>9598.5</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9690</v>
+        <v>9660</v>
       </c>
       <c r="C135" t="n">
-        <v>9700</v>
+        <v>9680</v>
       </c>
       <c r="D135" t="n">
-        <v>9700</v>
+        <v>9680</v>
       </c>
       <c r="E135" t="n">
-        <v>9690</v>
+        <v>9660</v>
       </c>
       <c r="F135" t="n">
-        <v>14</v>
+        <v>30.99464793</v>
       </c>
       <c r="G135" t="n">
-        <v>9604.333333333334</v>
+        <v>9601.25</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9700</v>
+        <v>9690</v>
       </c>
       <c r="C136" t="n">
         <v>9700</v>
       </c>
       <c r="D136" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="E136" t="n">
-        <v>9700</v>
+        <v>9690</v>
       </c>
       <c r="F136" t="n">
-        <v>263.8996</v>
+        <v>14</v>
       </c>
       <c r="G136" t="n">
-        <v>9607.416666666666</v>
+        <v>9604.333333333334</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9625</v>
+        <v>9700</v>
       </c>
       <c r="C137" t="n">
-        <v>9730</v>
+        <v>9700</v>
       </c>
       <c r="D137" t="n">
-        <v>9735</v>
+        <v>9705</v>
       </c>
       <c r="E137" t="n">
-        <v>9625</v>
+        <v>9700</v>
       </c>
       <c r="F137" t="n">
-        <v>215.09</v>
+        <v>263.8996</v>
       </c>
       <c r="G137" t="n">
-        <v>9611</v>
+        <v>9607.416666666666</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9740</v>
+        <v>9625</v>
       </c>
       <c r="C138" t="n">
-        <v>9740</v>
+        <v>9730</v>
       </c>
       <c r="D138" t="n">
-        <v>9740</v>
+        <v>9735</v>
       </c>
       <c r="E138" t="n">
-        <v>9740</v>
+        <v>9625</v>
       </c>
       <c r="F138" t="n">
-        <v>7.24</v>
+        <v>215.09</v>
       </c>
       <c r="G138" t="n">
-        <v>9614.666666666666</v>
+        <v>9611</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,13 +4398,16 @@
         <v>9740</v>
       </c>
       <c r="F139" t="n">
-        <v>23.779</v>
+        <v>7.24</v>
       </c>
       <c r="G139" t="n">
-        <v>9618.333333333334</v>
+        <v>9614.666666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -4008,12 +4427,15 @@
         <v>9740</v>
       </c>
       <c r="F140" t="n">
-        <v>10.72</v>
+        <v>23.779</v>
       </c>
       <c r="G140" t="n">
-        <v>9622</v>
+        <v>9618.333333333334</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,25 +4444,28 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9730</v>
+        <v>9740</v>
       </c>
       <c r="C141" t="n">
-        <v>9730</v>
+        <v>9740</v>
       </c>
       <c r="D141" t="n">
-        <v>9730</v>
+        <v>9740</v>
       </c>
       <c r="E141" t="n">
-        <v>9730</v>
+        <v>9740</v>
       </c>
       <c r="F141" t="n">
-        <v>33.71</v>
+        <v>10.72</v>
       </c>
       <c r="G141" t="n">
-        <v>9625.5</v>
+        <v>9622</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -4048,25 +4473,28 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9700</v>
+        <v>9730</v>
       </c>
       <c r="C142" t="n">
-        <v>9700</v>
+        <v>9730</v>
       </c>
       <c r="D142" t="n">
-        <v>9700</v>
+        <v>9730</v>
       </c>
       <c r="E142" t="n">
-        <v>9700</v>
+        <v>9730</v>
       </c>
       <c r="F142" t="n">
-        <v>20.4234</v>
+        <v>33.71</v>
       </c>
       <c r="G142" t="n">
-        <v>9628.583333333334</v>
+        <v>9625.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -4077,22 +4505,25 @@
         <v>9700</v>
       </c>
       <c r="C143" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="D143" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="E143" t="n">
         <v>9700</v>
       </c>
       <c r="F143" t="n">
-        <v>32</v>
+        <v>20.4234</v>
       </c>
       <c r="G143" t="n">
-        <v>9631.75</v>
+        <v>9628.583333333334</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>9710</v>
+        <v>9700</v>
       </c>
       <c r="C144" t="n">
-        <v>9710</v>
+        <v>9705</v>
       </c>
       <c r="D144" t="n">
-        <v>9710</v>
+        <v>9705</v>
       </c>
       <c r="E144" t="n">
-        <v>9710</v>
+        <v>9700</v>
       </c>
       <c r="F144" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G144" t="n">
-        <v>9635.083333333334</v>
+        <v>9631.75</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>9705</v>
+        <v>9710</v>
       </c>
       <c r="C145" t="n">
-        <v>9705</v>
+        <v>9710</v>
       </c>
       <c r="D145" t="n">
-        <v>9705</v>
+        <v>9710</v>
       </c>
       <c r="E145" t="n">
-        <v>9705</v>
+        <v>9710</v>
       </c>
       <c r="F145" t="n">
-        <v>9.572900000000001</v>
+        <v>35</v>
       </c>
       <c r="G145" t="n">
-        <v>9637.75</v>
+        <v>9635.083333333334</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9625</v>
+        <v>9705</v>
       </c>
       <c r="C146" t="n">
-        <v>9625</v>
+        <v>9705</v>
       </c>
       <c r="D146" t="n">
-        <v>9625</v>
+        <v>9705</v>
       </c>
       <c r="E146" t="n">
-        <v>9625</v>
+        <v>9705</v>
       </c>
       <c r="F146" t="n">
-        <v>10</v>
+        <v>9.572900000000001</v>
       </c>
       <c r="G146" t="n">
-        <v>9638.916666666666</v>
+        <v>9637.75</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4181,21 +4621,24 @@
         <v>9625</v>
       </c>
       <c r="C147" t="n">
-        <v>9700</v>
+        <v>9625</v>
       </c>
       <c r="D147" t="n">
-        <v>9700</v>
+        <v>9625</v>
       </c>
       <c r="E147" t="n">
-        <v>9620</v>
+        <v>9625</v>
       </c>
       <c r="F147" t="n">
-        <v>43.3647</v>
+        <v>10</v>
       </c>
       <c r="G147" t="n">
-        <v>9640.666666666666</v>
+        <v>9638.916666666666</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9685</v>
+        <v>9625</v>
       </c>
       <c r="C148" t="n">
-        <v>9690</v>
+        <v>9700</v>
       </c>
       <c r="D148" t="n">
-        <v>9690</v>
+        <v>9700</v>
       </c>
       <c r="E148" t="n">
-        <v>9685</v>
+        <v>9620</v>
       </c>
       <c r="F148" t="n">
-        <v>6.2</v>
+        <v>43.3647</v>
       </c>
       <c r="G148" t="n">
-        <v>9642.25</v>
+        <v>9640.666666666666</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,10 +4676,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>9685</v>
+      </c>
+      <c r="C149" t="n">
         <v>9690</v>
-      </c>
-      <c r="C149" t="n">
-        <v>9685</v>
       </c>
       <c r="D149" t="n">
         <v>9690</v>
@@ -4242,12 +4688,15 @@
         <v>9685</v>
       </c>
       <c r="F149" t="n">
-        <v>12</v>
+        <v>6.2</v>
       </c>
       <c r="G149" t="n">
-        <v>9643.75</v>
+        <v>9642.25</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9685</v>
+        <v>9690</v>
       </c>
       <c r="C150" t="n">
         <v>9685</v>
       </c>
       <c r="D150" t="n">
-        <v>9685</v>
+        <v>9690</v>
       </c>
       <c r="E150" t="n">
         <v>9685</v>
       </c>
       <c r="F150" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G150" t="n">
-        <v>9645.416666666666</v>
+        <v>9643.75</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4285,21 +4737,24 @@
         <v>9685</v>
       </c>
       <c r="C151" t="n">
-        <v>9700</v>
+        <v>9685</v>
       </c>
       <c r="D151" t="n">
-        <v>9700</v>
+        <v>9685</v>
       </c>
       <c r="E151" t="n">
         <v>9685</v>
       </c>
       <c r="F151" t="n">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>9647.416666666666</v>
+        <v>9645.416666666666</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,7 +4763,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9700</v>
+        <v>9685</v>
       </c>
       <c r="C152" t="n">
         <v>9700</v>
@@ -4317,15 +4772,18 @@
         <v>9700</v>
       </c>
       <c r="E152" t="n">
-        <v>9700</v>
+        <v>9685</v>
       </c>
       <c r="F152" t="n">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="G152" t="n">
-        <v>9649.083333333334</v>
+        <v>9647.416666666666</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4346,12 +4804,15 @@
         <v>9700</v>
       </c>
       <c r="F153" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G153" t="n">
-        <v>9651.916666666666</v>
+        <v>9649.083333333334</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="C154" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="D154" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="E154" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="F154" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G154" t="n">
-        <v>9653.5</v>
+        <v>9651.916666666666</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4398,12 +4862,15 @@
         <v>9695</v>
       </c>
       <c r="F155" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G155" t="n">
-        <v>9655.083333333334</v>
+        <v>9653.5</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,12 +4891,15 @@
         <v>9695</v>
       </c>
       <c r="F156" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G156" t="n">
-        <v>9658.083333333334</v>
+        <v>9655.083333333334</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4441,21 +4911,24 @@
         <v>9695</v>
       </c>
       <c r="C157" t="n">
-        <v>9700</v>
+        <v>9695</v>
       </c>
       <c r="D157" t="n">
-        <v>9700</v>
+        <v>9695</v>
       </c>
       <c r="E157" t="n">
         <v>9695</v>
       </c>
       <c r="F157" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G157" t="n">
-        <v>9659.916666666666</v>
+        <v>9658.083333333334</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4476,12 +4949,15 @@
         <v>9695</v>
       </c>
       <c r="F158" t="n">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="G158" t="n">
-        <v>9661.666666666666</v>
+        <v>9659.916666666666</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,7 +4966,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>9700</v>
+        <v>9695</v>
       </c>
       <c r="C159" t="n">
         <v>9700</v>
@@ -4502,12 +4978,15 @@
         <v>9695</v>
       </c>
       <c r="F159" t="n">
-        <v>365</v>
+        <v>69</v>
       </c>
       <c r="G159" t="n">
-        <v>9663.416666666666</v>
+        <v>9661.666666666666</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,7 +4995,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="C160" t="n">
         <v>9700</v>
@@ -4528,532 +5007,15 @@
         <v>9695</v>
       </c>
       <c r="F160" t="n">
-        <v>183</v>
+        <v>365</v>
       </c>
       <c r="G160" t="n">
-        <v>9665.166666666666</v>
+        <v>9663.416666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C161" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D161" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E161" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F161" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="G161" t="n">
-        <v>9668.5</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C162" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D162" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E162" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F162" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="G162" t="n">
-        <v>9670.333333333334</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C163" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D163" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E163" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F163" t="n">
-        <v>26.12</v>
-      </c>
-      <c r="G163" t="n">
-        <v>9671.666666666666</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C164" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D164" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E164" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F164" t="n">
-        <v>33</v>
-      </c>
-      <c r="G164" t="n">
-        <v>9673.333333333334</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>9620</v>
-      </c>
-      <c r="C165" t="n">
-        <v>9620</v>
-      </c>
-      <c r="D165" t="n">
-        <v>9620</v>
-      </c>
-      <c r="E165" t="n">
-        <v>9620</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1.0532</v>
-      </c>
-      <c r="G165" t="n">
-        <v>9673</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>9620</v>
-      </c>
-      <c r="C166" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D166" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E166" t="n">
-        <v>9620</v>
-      </c>
-      <c r="F166" t="n">
-        <v>42.0489</v>
-      </c>
-      <c r="G166" t="n">
-        <v>9673.916666666666</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C167" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D167" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E167" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F167" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="G167" t="n">
-        <v>9674.916666666666</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C168" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D168" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E168" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F168" t="n">
-        <v>31</v>
-      </c>
-      <c r="G168" t="n">
-        <v>9675.75</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C169" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D169" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E169" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F169" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="G169" t="n">
-        <v>9676.333333333334</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C170" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D170" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E170" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F170" t="n">
-        <v>28</v>
-      </c>
-      <c r="G170" t="n">
-        <v>9676.75</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C171" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D171" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E171" t="n">
-        <v>9615</v>
-      </c>
-      <c r="F171" t="n">
-        <v>408.4998</v>
-      </c>
-      <c r="G171" t="n">
-        <v>9676.75</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>9600</v>
-      </c>
-      <c r="C172" t="n">
-        <v>9680</v>
-      </c>
-      <c r="D172" t="n">
-        <v>9690</v>
-      </c>
-      <c r="E172" t="n">
-        <v>9540</v>
-      </c>
-      <c r="F172" t="n">
-        <v>552.1676</v>
-      </c>
-      <c r="G172" t="n">
-        <v>9676.416666666666</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>9680</v>
-      </c>
-      <c r="C173" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D173" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E173" t="n">
-        <v>9680</v>
-      </c>
-      <c r="F173" t="n">
-        <v>12</v>
-      </c>
-      <c r="G173" t="n">
-        <v>9676.333333333334</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>9685</v>
-      </c>
-      <c r="C174" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D174" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E174" t="n">
-        <v>9685</v>
-      </c>
-      <c r="F174" t="n">
-        <v>10</v>
-      </c>
-      <c r="G174" t="n">
-        <v>9676.083333333334</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C175" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D175" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E175" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F175" t="n">
-        <v>2.5528</v>
-      </c>
-      <c r="G175" t="n">
-        <v>9675.666666666666</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C176" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D176" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E176" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F176" t="n">
-        <v>12</v>
-      </c>
-      <c r="G176" t="n">
-        <v>9674.833333333334</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C177" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D177" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E177" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F177" t="n">
-        <v>10</v>
-      </c>
-      <c r="G177" t="n">
-        <v>9673.916666666666</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C178" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D178" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E178" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F178" t="n">
-        <v>12</v>
-      </c>
-      <c r="G178" t="n">
-        <v>9673.083333333334</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>9600</v>
-      </c>
-      <c r="C179" t="n">
-        <v>9520</v>
-      </c>
-      <c r="D179" t="n">
-        <v>9600</v>
-      </c>
-      <c r="E179" t="n">
-        <v>9520</v>
-      </c>
-      <c r="F179" t="n">
-        <v>57.5536</v>
-      </c>
-      <c r="G179" t="n">
-        <v>9671.25</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>9690</v>
-      </c>
-      <c r="C180" t="n">
-        <v>9690</v>
-      </c>
-      <c r="D180" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E180" t="n">
-        <v>9690</v>
-      </c>
-      <c r="F180" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="G180" t="n">
-        <v>9673.083333333334</v>
-      </c>
-      <c r="H180" t="n">
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
